--- a/biology/Médecine/Centre_hospitalier_de_Rochefort/Centre_hospitalier_de_Rochefort.xlsx
+++ b/biology/Médecine/Centre_hospitalier_de_Rochefort/Centre_hospitalier_de_Rochefort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier de Rochefort est un hôpital français situé à Rochefort sur Mer, dans le département de la Charente-Maritime.
@@ -515,7 +527,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jadis, le premier hôpital civil de Rochefort, nommé "Saint-Charles", date de 1733 grâce à l’abbé Charles Jouvenon, curé de l'Église Saint-Louis de Rochefort. Situé dans deux maisons au Nord-Ouest de la ville, il ne comprennait à l'origine que quatre lits à deux places. Vers 1750, il sera agrandi et pourra accueillir 45 lits supplémentaires. Il sera de nouveau agrandi en 1766 et 1801. 
 Un autre hôpital, comportant une école de médecine, de chirurgie, de pharmacie et d'infirmerie, appelé hôpital de la Marine, sera construit pour la Marine royale en 1783. Il ne fera pas partie du Centre hospitalier de la ville. Il sera fermé après avoir été longtemps désaffecté en 1985.
@@ -560,7 +574,9 @@
           <t>Sites hospitaliers actuels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Depuis fin mars 2011, les services du centre hospitalier de Rochefort sur Mer comporte :
 Le Centre Hospitalier, situé près de la zone artisanale "Béligon" au Nord de la ville, qui remplace l'ancien centre hospitalier "Saint-Charles", situé en centre-ville de Rochefort. Ce site accueille également : une crèche de 45 enfants, une maison de retraite, un bâtiment de santé publique et d'urgences, deux parcs de stationnement de 200 places pour le public, et 400 places pour le personnel et une plate-forme hélisurface à 20 mètres au Nord pour accueillir des hélicoptères de la Sécurité Civile française et les Urgences.
@@ -592,7 +608,9 @@
           <t>Services hospitaliers et administratifs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Centre hospitalier est organisé en six services médicaux et quatre administrations:
 Service de médecine
@@ -632,7 +650,9 @@
           <t>Directions et sous directions administratives</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le centre hospitalier est dirigé par un directeur général qui n'est pas un médecin mais un manager, et dix autres directions administratives, dont une pour les soins:
 Direction générale, Pierrick Dieumegard
@@ -673,7 +693,9 @@
           <t>Capacités d'accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La capacité d'accueil correspond au nombre de lits disponibles sur l'ensemble du site de Béligon
 Service des urgences, médico-technique et ambulatoire : 57 lits
@@ -712,7 +734,9 @@
           <t>Nouveautés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le nouveau Centre hospitalier possède une IRM contrairement au site Saint-Charles.
 Depuis 2018, le service d'IRM a été agrandi en prenant du terrain sur le parvis de l'hôpital.
@@ -744,7 +768,9 @@
           <t>Chiffres clés</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2008, l'ancien site hospitalier "Saint-Charles" avait accueilli 24 282 patients et le Centre de Gérontologie 915 patients.
 </t>
@@ -775,7 +801,9 @@
           <t>Situation géographique et accès</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terrain est situé du marais de Rochefort au Nord et l'Est et de la zone artisanale de Béligon au Sud. L'entrée du public s'effectue par le nouveau rond-point giratoire qui a dû être construit sur la départementale N°5, en direction de Loire-les-Marais. 
 En voiture, le nouveau site est situé à :
